--- a/input/system-requirements/HHAS L2_functional and non-functional requirements.xlsx
+++ b/input/system-requirements/HHAS L2_functional and non-functional requirements.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/WMOWHODHICollaborationSpace/Shared Documents/General/Use Cases/Use Case 1 - HEAT/DAK/Clean files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{456BE0C6-0791-4F25-88A7-37C89D87B214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF82170-462C-472F-8066-D00496C5BC22}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{456BE0C6-0791-4F25-88A7-37C89D87B214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFDC9B1A-04AB-4150-8610-B9A9CCAB24F8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D99AAAA5-616A-46C3-AA21-7263727BF10F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D99AAAA5-616A-46C3-AA21-7263727BF10F}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
-    <sheet name="Functional" sheetId="3" r:id="rId2"/>
+    <sheet name="Functional" sheetId="6" r:id="rId2"/>
     <sheet name="Non-functional" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="267">
   <si>
     <t>Tabs</t>
   </si>
@@ -581,9 +581,6 @@
     <t>I can have a log of approval decisions made for heat event alerts</t>
   </si>
   <si>
-    <t>Business process A: Issue and disseminate a heat event alert</t>
-  </si>
-  <si>
     <t>HHAS.FXNREQ.1</t>
   </si>
   <si>
@@ -686,9 +683,6 @@
     <t>HHAS.A8</t>
   </si>
   <si>
-    <t>HHAS.A14</t>
-  </si>
-  <si>
     <t>Generate targeted message(s) with extra guidance</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
   </si>
   <si>
     <t>An audit can be performed when needed</t>
-  </si>
-  <si>
-    <t>The system to offer the posibility of sending the generated report by email</t>
   </si>
   <si>
     <t>I do not have to manually do that</t>
@@ -1096,12 +1087,62 @@
   <si>
     <t>HHAS.FXNREQ.25</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note for the author of the high-level functional and non-functional requirements component: update requirements as needed. Functional requirements will vary depending on the workflow of the multiple health domain areas. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(please remove this row before publication)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Business process A: issue and disseminate a heat event alert</t>
+  </si>
+  <si>
+    <t>HHAS.A12</t>
+  </si>
+  <si>
+    <t>to be able to create tasks in the HIS related to a heat event alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can track HHAP implementation and improve accountability </t>
+  </si>
+  <si>
+    <t>HHAS.FXNREQ.26</t>
+  </si>
+  <si>
+    <t>The system to offer the possibility of sending the generated report by email</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1282,8 +1323,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1341,6 +1402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1572,7 +1639,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1667,6 +1734,13 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1712,12 +1786,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1745,7 +1813,9 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2125,7 +2195,7 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -2141,68 +2211,68 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
@@ -2213,25 +2283,25 @@
     </row>
     <row r="11" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
@@ -2239,10 +2309,10 @@
       <c r="C13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
@@ -2250,10 +2320,10 @@
       <c r="C14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
@@ -2261,10 +2331,10 @@
       <c r="C15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
@@ -2272,10 +2342,10 @@
       <c r="C16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="48"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
@@ -2283,10 +2353,10 @@
       <c r="C17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
@@ -2294,21 +2364,21 @@
       <c r="C18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5" ht="48.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:5" ht="65.150000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
@@ -2316,10 +2386,10 @@
       <c r="C20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
@@ -2327,10 +2397,10 @@
       <c r="C21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="48"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
@@ -2338,10 +2408,10 @@
       <c r="C22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -2351,30 +2421,30 @@
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="B25" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" ht="246.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
@@ -2386,11 +2456,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B1:E8"/>
@@ -2406,6 +2471,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2414,15 +2484,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8B45DC-83E5-456A-AAEC-8B1481F6280E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F56B939-C1CB-4916-A0C0-301200189B39}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T724"/>
+  <dimension ref="A1:T722"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:A28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2436,108 +2506,84 @@
     <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-    </row>
-    <row r="3" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>112</v>
-      </c>
+    <row r="3" spans="1:20" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2554,24 +2600,24 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>132</v>
+      <c r="E6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -2590,22 +2636,22 @@
     </row>
     <row r="7" spans="1:20" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2624,22 +2670,22 @@
     </row>
     <row r="8" spans="1:20" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2658,22 +2704,22 @@
     </row>
     <row r="9" spans="1:20" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2692,22 +2738,22 @@
     </row>
     <row r="10" spans="1:20" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2726,22 +2772,22 @@
     </row>
     <row r="11" spans="1:20" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2758,15 +2804,25 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+    <row r="12" spans="1:20" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>103</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2782,25 +2838,15 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>140</v>
-      </c>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2816,24 +2862,24 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:20" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2850,24 +2896,24 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:20" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>127</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -2884,24 +2930,24 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2918,24 +2964,24 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -2952,242 +2998,294 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="1:20" s="58" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="B21" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:20" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E21" s="27" t="s">
+    <row r="24" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F24" s="27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E22" s="27" t="s">
+    <row r="25" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F25" s="27" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>258</v>
-      </c>
       <c r="E26" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="11"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
@@ -8725,28 +8823,12 @@
       <c r="E722" s="7"/>
       <c r="F722" s="11"/>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A723" s="13"/>
-      <c r="B723" s="13"/>
-      <c r="C723" s="13"/>
-      <c r="D723" s="1"/>
-      <c r="E723" s="7"/>
-      <c r="F723" s="11"/>
-    </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A724" s="13"/>
-      <c r="B724" s="13"/>
-      <c r="C724" s="13"/>
-      <c r="D724" s="1"/>
-      <c r="E724" s="7"/>
-      <c r="F724" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A12:F12"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A13:F13"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8760,7 +8842,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8784,7 +8866,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>23</v>
@@ -8795,7 +8877,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>23</v>
@@ -8806,7 +8888,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>23</v>
@@ -8817,7 +8899,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>23</v>
@@ -8828,7 +8910,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>23</v>
@@ -8839,7 +8921,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>29</v>
@@ -8850,7 +8932,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>29</v>
@@ -8861,7 +8943,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>29</v>
@@ -8872,7 +8954,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>29</v>
@@ -8883,7 +8965,7 @@
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>29</v>
@@ -8894,7 +8976,7 @@
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>29</v>
@@ -8905,7 +8987,7 @@
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>29</v>
@@ -8916,7 +8998,7 @@
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>29</v>
@@ -8927,7 +9009,7 @@
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>38</v>
@@ -8938,7 +9020,7 @@
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>38</v>
@@ -8949,7 +9031,7 @@
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>38</v>
@@ -8960,7 +9042,7 @@
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>38</v>
@@ -8971,7 +9053,7 @@
     </row>
     <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -8982,7 +9064,7 @@
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>38</v>
@@ -8993,7 +9075,7 @@
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>38</v>
@@ -9004,7 +9086,7 @@
     </row>
     <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>46</v>
@@ -9015,7 +9097,7 @@
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>46</v>
@@ -9026,7 +9108,7 @@
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>46</v>
@@ -9037,7 +9119,7 @@
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>46</v>
@@ -9048,7 +9130,7 @@
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>46</v>
@@ -9059,7 +9141,7 @@
     </row>
     <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>46</v>
@@ -9070,7 +9152,7 @@
     </row>
     <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>46</v>
@@ -9081,7 +9163,7 @@
     </row>
     <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>46</v>
@@ -9092,7 +9174,7 @@
     </row>
     <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>46</v>
@@ -9103,7 +9185,7 @@
     </row>
     <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>56</v>
@@ -9114,7 +9196,7 @@
     </row>
     <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>56</v>
@@ -9125,7 +9207,7 @@
     </row>
     <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>56</v>
@@ -9136,7 +9218,7 @@
     </row>
     <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>56</v>
@@ -9147,7 +9229,7 @@
     </row>
     <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>56</v>
@@ -9158,7 +9240,7 @@
     </row>
     <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>56</v>
@@ -9169,7 +9251,7 @@
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>56</v>
@@ -9180,7 +9262,7 @@
     </row>
     <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>56</v>
@@ -9191,7 +9273,7 @@
     </row>
     <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>56</v>
@@ -9202,7 +9284,7 @@
     </row>
     <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>56</v>
@@ -9213,7 +9295,7 @@
     </row>
     <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>56</v>
@@ -9224,7 +9306,7 @@
     </row>
     <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>68</v>
@@ -9235,7 +9317,7 @@
     </row>
     <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>68</v>
@@ -9246,7 +9328,7 @@
     </row>
     <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>68</v>
@@ -9257,7 +9339,7 @@
     </row>
     <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>72</v>
@@ -9268,7 +9350,7 @@
     </row>
     <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>72</v>
@@ -9279,7 +9361,7 @@
     </row>
     <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>72</v>
@@ -9290,7 +9372,7 @@
     </row>
     <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>72</v>
@@ -9301,7 +9383,7 @@
     </row>
     <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>72</v>
@@ -9312,7 +9394,7 @@
     </row>
     <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>72</v>
@@ -9323,7 +9405,7 @@
     </row>
     <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>72</v>
@@ -9334,7 +9416,7 @@
     </row>
     <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>72</v>
@@ -9345,7 +9427,7 @@
     </row>
     <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>72</v>
@@ -9356,7 +9438,7 @@
     </row>
     <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>72</v>
@@ -9367,7 +9449,7 @@
     </row>
     <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>83</v>
@@ -9378,7 +9460,7 @@
     </row>
     <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>83</v>
@@ -9389,7 +9471,7 @@
     </row>
     <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>83</v>
@@ -9400,18 +9482,18 @@
     </row>
     <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>87</v>
@@ -9422,7 +9504,7 @@
     </row>
     <row r="60" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>87</v>
@@ -9433,7 +9515,7 @@
     </row>
     <row r="61" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>87</v>
@@ -9444,7 +9526,7 @@
     </row>
     <row r="62" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>87</v>
@@ -9455,7 +9537,7 @@
     </row>
     <row r="63" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>87</v>
@@ -9466,7 +9548,7 @@
     </row>
     <row r="64" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>93</v>
@@ -9476,11 +9558,11 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9493,15 +9575,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D48D874E7A1790438E41FEF6175B57DA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95a0534ef6321ddf686479a688eeec4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c6b5db6-ab68-47a9-aab4-2b48469c8e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbe277fcecc85afb117a61a3fff7c893" ns2:_="">
     <xsd:import namespace="2c6b5db6-ab68-47a9-aab4-2b48469c8e4b"/>
@@ -9663,6 +9736,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9670,14 +9752,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D04AF83-9887-434B-B83F-8F76777F869C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C2F32FC-49AD-4D27-AEEA-AD42EB05E383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9695,6 +9769,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D04AF83-9887-434B-B83F-8F76777F869C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F509E6-2A43-467D-9C8B-DFDA1B706516}">
   <ds:schemaRefs>

--- a/input/system-requirements/HHAS L2_functional and non-functional requirements.xlsx
+++ b/input/system-requirements/HHAS L2_functional and non-functional requirements.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/WMOWHODHICollaborationSpace/Shared Documents/General/Use Cases/Use Case 1 - HEAT/DAK/Clean files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WHO\GitHub\smart-l2-hhas-CC\input\system-requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{456BE0C6-0791-4F25-88A7-37C89D87B214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFDC9B1A-04AB-4150-8610-B9A9CCAB24F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4501F922-851A-46E1-BF27-9A7AA20F057F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D99AAAA5-616A-46C3-AA21-7263727BF10F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D99AAAA5-616A-46C3-AA21-7263727BF10F}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
-    <sheet name="Functional" sheetId="6" r:id="rId2"/>
-    <sheet name="Non-functional" sheetId="2" r:id="rId3"/>
+    <sheet name="Functional" sheetId="7" r:id="rId2"/>
+    <sheet name="Non-functional" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="267">
   <si>
     <t>Tabs</t>
   </si>
@@ -511,9 +511,6 @@
     </r>
   </si>
   <si>
-    <t>Template Version: Functional and non-functional requirements_Template V3.2</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">SMART Guidelines layer 2 (L2) for </t>
     </r>
@@ -629,9 +626,6 @@
     <t>I can receive the information in due time via the most appropriate dissemination method</t>
   </si>
   <si>
-    <t>to be able to receive heat event alerts notifications via various digital tools, such as Email, SMS, social media platforms, HIS notification etc.</t>
-  </si>
-  <si>
     <t>I can have a means to receive timely heat event alerts and take appropriate actions</t>
   </si>
   <si>
@@ -692,9 +686,6 @@
     <t>Send message(s) to health-care workers</t>
   </si>
   <si>
-    <t>HHAS.B4</t>
-  </si>
-  <si>
     <t>HHAS.B7</t>
   </si>
   <si>
@@ -920,15 +911,9 @@
     <t>I can track past reports and avoid duplicates</t>
   </si>
   <si>
-    <t>HHAS.B3</t>
-  </si>
-  <si>
     <t>the HHAS to be able to receive automatically a delivery acknowledgment for a heat event alert sent to my device (e.g. alerts deliverd via SMS or social media platforms)</t>
   </si>
   <si>
-    <t>HHAS.B4.4</t>
-  </si>
-  <si>
     <t>Report case</t>
   </si>
   <si>
@@ -942,9 +927,6 @@
   </si>
   <si>
     <t>HHAS.FXNREQ.18</t>
-  </si>
-  <si>
-    <t>Act on targeted message(s)</t>
   </si>
   <si>
     <t>Appropriate reports can be generated</t>
@@ -1088,44 +1070,9 @@
     <t>HHAS.FXNREQ.25</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Note for the author of the high-level functional and non-functional requirements component: update requirements as needed. Functional requirements will vary depending on the workflow of the multiple health domain areas. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-(please remove this row before publication)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Business process A: issue and disseminate a heat event alert</t>
   </si>
   <si>
-    <t>HHAS.A12</t>
-  </si>
-  <si>
     <t>to be able to create tasks in the HIS related to a heat event alert</t>
   </si>
   <si>
@@ -1136,13 +1083,37 @@
   </si>
   <si>
     <t>The system to offer the possibility of sending the generated report by email</t>
+  </si>
+  <si>
+    <t>HHAS.A10</t>
+  </si>
+  <si>
+    <t>HHAS.B2</t>
+  </si>
+  <si>
+    <t>to be able to receive heat event alerts notifications via various digital tools, such as email, SMS, social media platforms, HIS notification etc.</t>
+  </si>
+  <si>
+    <t>HHAS.B12</t>
+  </si>
+  <si>
+    <t>Provide a means to ensure confidentiality and privacy of personal health information</t>
+  </si>
+  <si>
+    <t>Provide accsess to the system based on multi-factor authentication mechanism (e.g. password + SMS) to protect against unauthorized access</t>
+  </si>
+  <si>
+    <t>HHAS.NFXNREQ.64</t>
+  </si>
+  <si>
+    <t>HHAS.NFXNREQ.65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1324,27 +1295,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1402,12 +1361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1735,6 +1688,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1812,9 +1768,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2193,11 +2146,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2211,68 +2162,68 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
@@ -2283,25 +2234,25 @@
     </row>
     <row r="11" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
@@ -2309,10 +2260,10 @@
       <c r="C13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
@@ -2320,10 +2271,10 @@
       <c r="C14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
@@ -2331,10 +2282,10 @@
       <c r="C15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
@@ -2342,10 +2293,10 @@
       <c r="C16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
@@ -2353,10 +2304,10 @@
       <c r="C17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
@@ -2364,21 +2315,21 @@
       <c r="C18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" ht="48.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" ht="65.150000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
@@ -2386,10 +2337,10 @@
       <c r="C20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
@@ -2397,10 +2348,10 @@
       <c r="C21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
@@ -2408,10 +2359,10 @@
       <c r="C22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -2421,42 +2372,36 @@
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="1:5" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" ht="246.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="13"/>
+      <c r="B28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B26:E26"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B1:E8"/>
     <mergeCell ref="B9:E9"/>
@@ -2476,6 +2421,7 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2484,15 +2430,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F56B939-C1CB-4916-A0C0-301200189B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9FE9C7-B58E-43E0-BB75-591F193F2A93}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T722"/>
+  <dimension ref="A1:T721"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2506,45 +2452,55 @@
     <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-    </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
@@ -2553,37 +2509,51 @@
       <c r="B4" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>112</v>
-      </c>
+      <c r="D4" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2600,24 +2570,24 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -2645,13 +2615,13 @@
         <v>143</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2673,13 +2643,13 @@
         <v>117</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>104</v>
@@ -2707,19 +2677,19 @@
         <v>118</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>108</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2741,19 +2711,19 @@
         <v>119</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2775,19 +2745,19 @@
         <v>120</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>145</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2804,25 +2774,15 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:20" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>103</v>
-      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2838,15 +2798,25 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="E13" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>137</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2862,24 +2832,24 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2896,24 +2866,24 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:20" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -2932,22 +2902,22 @@
     </row>
     <row r="16" spans="1:20" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2964,24 +2934,24 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:20" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -2998,24 +2968,24 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="1:20" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -3032,179 +3002,165 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" s="32" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="27" t="s">
+      <c r="F20" s="28" t="s">
         <v>229</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22"/>
+        <v>249</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="23" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>254</v>
-      </c>
       <c r="D23" s="27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E23" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>220</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>255</v>
-      </c>
       <c r="E24" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>225</v>
+        <v>249</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="29" x14ac:dyDescent="0.35">
@@ -3212,80 +3168,68 @@
         <v>252</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>247</v>
-      </c>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
@@ -8815,19 +8759,10 @@
       <c r="E721" s="7"/>
       <c r="F721" s="11"/>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A722" s="13"/>
-      <c r="B722" s="13"/>
-      <c r="C722" s="13"/>
-      <c r="D722" s="1"/>
-      <c r="E722" s="7"/>
-      <c r="F722" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A13:F13"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8835,20 +8770,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A24840-6C32-4165-B7FA-1A32EB5CB99B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8514C330-7E57-4D5D-98FE-1A6872A91CA4}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="92.453125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
@@ -8866,7 +8799,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>23</v>
@@ -8875,698 +8808,720 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>71</v>
+      <c r="C44" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B64" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="58" t="s">
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A68:C68"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9575,9 +9530,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D48D874E7A1790438E41FEF6175B57DA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95a0534ef6321ddf686479a688eeec4d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c6b5db6-ab68-47a9-aab4-2b48469c8e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbe277fcecc85afb117a61a3fff7c893" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D48D874E7A1790438E41FEF6175B57DA" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3e99e327d800f3cb0e281c96f3fb089">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c6b5db6-ab68-47a9-aab4-2b48469c8e4b" xmlns:ns3="de06004d-a710-4663-ab14-7573aebfa9f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7808469045b3c79f39ab7adbe5ca21a9" ns2:_="" ns3:_="">
     <xsd:import namespace="2c6b5db6-ab68-47a9-aab4-2b48469c8e4b"/>
+    <xsd:import namespace="de06004d-a710-4663-ab14-7573aebfa9f4"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -9591,6 +9547,9 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9635,6 +9594,35 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="aa4eac88-8ae6-4a96-90c7-97bc93c844ef" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de06004d-a710-4663-ab14-7573aebfa9f4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5a27b899-a4c4-4b10-b0d5-24b2c274bd2e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="de06004d-a710-4663-ab14-7573aebfa9f4">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -9747,18 +9735,24 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <TaxCatchAll xmlns="de06004d-a710-4663-ab14-7573aebfa9f4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2c6b5db6-ab68-47a9-aab4-2b48469c8e4b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C2F32FC-49AD-4D27-AEEA-AD42EB05E383}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21165853-1B79-41D4-A828-3CFAEFA4D248}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="2c6b5db6-ab68-47a9-aab4-2b48469c8e4b"/>
+    <ds:schemaRef ds:uri="de06004d-a710-4663-ab14-7573aebfa9f4"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -9786,6 +9780,8 @@
     <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
     <ds:schemaRef ds:uri="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
     <ds:schemaRef ds:uri="db15119c-9bb3-4b2d-aba7-a20f2bdcd107"/>
+    <ds:schemaRef ds:uri="de06004d-a710-4663-ab14-7573aebfa9f4"/>
+    <ds:schemaRef ds:uri="2c6b5db6-ab68-47a9-aab4-2b48469c8e4b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>